--- a/biology/Zoologie/Hivanua_tekao/Hivanua_tekao.xlsx
+++ b/biology/Zoologie/Hivanua_tekao/Hivanua_tekao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hivanua tekao est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hivanua tekao est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nuku Hiva dans les îles Marquises[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nuku Hiva dans les îles Marquises,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,96 mm de long sur 2,92 mm et l'abdomen 3,70 mm et la carapace de la femelle paratype mesure 4,01 mm de long sur 3,02 mm et l'abdomen 4,90 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,96 mm de long sur 2,92 mm et l'abdomen 3,70 mm et la carapace de la femelle paratype mesure 4,01 mm de long sur 3,02 mm et l'abdomen 4,90 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Maddison en 2024.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Tekao.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maddison, 2024 : « Hivanua, a new genus of harmochirine jumping spiders from the Marquesas Islands (Araneae, Salticidae, Harmochirina). » ZooKeys, vol. 1200, p. 215-230 (texte intégral).</t>
         </is>
